--- a/natmiOut/OldD0/LR-pairs_lrc2p/Adam23-Itgb3.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Adam23-Itgb3.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.111284246337168</v>
+        <v>0.1145763333333333</v>
       </c>
       <c r="H2">
-        <v>0.111284246337168</v>
+        <v>0.343729</v>
       </c>
       <c r="I2">
-        <v>0.006605758224220992</v>
+        <v>0.006557053879060051</v>
       </c>
       <c r="J2">
-        <v>0.006605758224220992</v>
+        <v>0.006557053879060051</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.12912233874293</v>
+        <v>7.214110666666667</v>
       </c>
       <c r="N2">
-        <v>6.12912233874293</v>
+        <v>21.642332</v>
       </c>
       <c r="O2">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="P2">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="Q2">
-        <v>0.6820747601753075</v>
+        <v>0.8265663484475555</v>
       </c>
       <c r="R2">
-        <v>0.6820747601753075</v>
+        <v>7.439097136027999</v>
       </c>
       <c r="S2">
-        <v>0.002843287909148623</v>
+        <v>0.003074487025966752</v>
       </c>
       <c r="T2">
-        <v>0.002843287909148623</v>
+        <v>0.003074487025966752</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.111284246337168</v>
+        <v>0.1145763333333333</v>
       </c>
       <c r="H3">
-        <v>0.111284246337168</v>
+        <v>0.343729</v>
       </c>
       <c r="I3">
-        <v>0.006605758224220992</v>
+        <v>0.006557053879060051</v>
       </c>
       <c r="J3">
-        <v>0.006605758224220992</v>
+        <v>0.006557053879060051</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.0811189833722</v>
+        <v>7.110350666666666</v>
       </c>
       <c r="N3">
-        <v>7.0811189833722</v>
+        <v>21.331052</v>
       </c>
       <c r="O3">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="P3">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="Q3">
-        <v>0.7880169892883886</v>
+        <v>0.8146779081008888</v>
       </c>
       <c r="R3">
-        <v>0.7880169892883886</v>
+        <v>7.332101172907999</v>
       </c>
       <c r="S3">
-        <v>0.003284917297440393</v>
+        <v>0.003030266915054355</v>
       </c>
       <c r="T3">
-        <v>0.003284917297440393</v>
+        <v>0.003030266915054355</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.111284246337168</v>
+        <v>0.1145763333333333</v>
       </c>
       <c r="H4">
-        <v>0.111284246337168</v>
+        <v>0.343729</v>
       </c>
       <c r="I4">
-        <v>0.006605758224220992</v>
+        <v>0.006557053879060051</v>
       </c>
       <c r="J4">
-        <v>0.006605758224220992</v>
+        <v>0.006557053879060051</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.02943527417126</v>
+        <v>1.061296333333333</v>
       </c>
       <c r="N4">
-        <v>1.02943527417126</v>
+        <v>3.183889</v>
       </c>
       <c r="O4">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="P4">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="Q4">
-        <v>0.1145599286390446</v>
+        <v>0.1215994424534444</v>
       </c>
       <c r="R4">
-        <v>0.1145599286390446</v>
+        <v>1.094394982081</v>
       </c>
       <c r="S4">
-        <v>0.0004775530176319762</v>
+        <v>0.000452299938038944</v>
       </c>
       <c r="T4">
-        <v>0.0004775530176319762</v>
+        <v>0.000452299938038944</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.966737813242499</v>
+        <v>9.390663666666667</v>
       </c>
       <c r="H5">
-        <v>8.966737813242499</v>
+        <v>28.171991</v>
       </c>
       <c r="I5">
-        <v>0.5322595426022755</v>
+        <v>0.5374154140831726</v>
       </c>
       <c r="J5">
-        <v>0.5322595426022755</v>
+        <v>0.5374154140831726</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.12912233874293</v>
+        <v>7.214110666666667</v>
       </c>
       <c r="N5">
-        <v>6.12912233874293</v>
+        <v>21.642332</v>
       </c>
       <c r="O5">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="P5">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="Q5">
-        <v>54.95823303679553</v>
+        <v>67.74528692477911</v>
       </c>
       <c r="R5">
-        <v>54.95823303679553</v>
+        <v>609.7075823230119</v>
       </c>
       <c r="S5">
-        <v>0.2290981702086888</v>
+        <v>0.2519846181880264</v>
       </c>
       <c r="T5">
-        <v>0.2290981702086888</v>
+        <v>0.2519846181880264</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.966737813242499</v>
+        <v>9.390663666666667</v>
       </c>
       <c r="H6">
-        <v>8.966737813242499</v>
+        <v>28.171991</v>
       </c>
       <c r="I6">
-        <v>0.5322595426022755</v>
+        <v>0.5374154140831726</v>
       </c>
       <c r="J6">
-        <v>0.5322595426022755</v>
+        <v>0.5374154140831726</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.0811189833722</v>
+        <v>7.110350666666666</v>
       </c>
       <c r="N6">
-        <v>7.0811189833722</v>
+        <v>21.331052</v>
       </c>
       <c r="O6">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="P6">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="Q6">
-        <v>63.49453734827279</v>
+        <v>66.77091166272578</v>
       </c>
       <c r="R6">
-        <v>63.49453734827279</v>
+        <v>600.9382049645319</v>
       </c>
       <c r="S6">
-        <v>0.264682496524177</v>
+        <v>0.2483603427656935</v>
       </c>
       <c r="T6">
-        <v>0.264682496524177</v>
+        <v>0.2483603427656935</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.966737813242499</v>
+        <v>9.390663666666667</v>
       </c>
       <c r="H7">
-        <v>8.966737813242499</v>
+        <v>28.171991</v>
       </c>
       <c r="I7">
-        <v>0.5322595426022755</v>
+        <v>0.5374154140831726</v>
       </c>
       <c r="J7">
-        <v>0.5322595426022755</v>
+        <v>0.5374154140831726</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.02943527417126</v>
+        <v>1.061296333333333</v>
       </c>
       <c r="N7">
-        <v>1.02943527417126</v>
+        <v>3.183889</v>
       </c>
       <c r="O7">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="P7">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="Q7">
-        <v>9.230676199197097</v>
+        <v>9.966276916999888</v>
       </c>
       <c r="R7">
-        <v>9.230676199197097</v>
+        <v>89.69649225299899</v>
       </c>
       <c r="S7">
-        <v>0.03847887586940973</v>
+        <v>0.03707045312945283</v>
       </c>
       <c r="T7">
-        <v>0.03847887586940973</v>
+        <v>0.03707045312945283</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.76852947316154</v>
+        <v>7.968512</v>
       </c>
       <c r="H8">
-        <v>7.76852947316154</v>
+        <v>23.905536</v>
       </c>
       <c r="I8">
-        <v>0.4611346991735034</v>
+        <v>0.4560275320377672</v>
       </c>
       <c r="J8">
-        <v>0.4611346991735034</v>
+        <v>0.4560275320377672</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.12912233874293</v>
+        <v>7.214110666666667</v>
       </c>
       <c r="N8">
-        <v>6.12912233874293</v>
+        <v>21.642332</v>
       </c>
       <c r="O8">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="P8">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="Q8">
-        <v>47.61426753313724</v>
+        <v>57.48572741666133</v>
       </c>
       <c r="R8">
-        <v>47.61426753313724</v>
+        <v>517.3715467499519</v>
       </c>
       <c r="S8">
-        <v>0.1984842118261951</v>
+        <v>0.2138232743841257</v>
       </c>
       <c r="T8">
-        <v>0.1984842118261951</v>
+        <v>0.2138232743841257</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.76852947316154</v>
+        <v>7.968512</v>
       </c>
       <c r="H9">
-        <v>7.76852947316154</v>
+        <v>23.905536</v>
       </c>
       <c r="I9">
-        <v>0.4611346991735034</v>
+        <v>0.4560275320377672</v>
       </c>
       <c r="J9">
-        <v>0.4611346991735034</v>
+        <v>0.4560275320377672</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.0811189833722</v>
+        <v>7.110350666666666</v>
       </c>
       <c r="N9">
-        <v>7.0811189833722</v>
+        <v>21.331052</v>
       </c>
       <c r="O9">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="P9">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="Q9">
-        <v>55.00988152529062</v>
+        <v>56.65891461154133</v>
       </c>
       <c r="R9">
-        <v>55.00988152529062</v>
+        <v>509.9302315038719</v>
       </c>
       <c r="S9">
-        <v>0.2293134714211631</v>
+        <v>0.2107478706406525</v>
       </c>
       <c r="T9">
-        <v>0.2293134714211631</v>
+        <v>0.2107478706406525</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.76852947316154</v>
+        <v>7.968512</v>
       </c>
       <c r="H10">
-        <v>7.76852947316154</v>
+        <v>23.905536</v>
       </c>
       <c r="I10">
-        <v>0.4611346991735034</v>
+        <v>0.4560275320377672</v>
       </c>
       <c r="J10">
-        <v>0.4611346991735034</v>
+        <v>0.4560275320377672</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.02943527417126</v>
+        <v>1.061296333333333</v>
       </c>
       <c r="N10">
-        <v>1.02943527417126</v>
+        <v>3.183889</v>
       </c>
       <c r="O10">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="P10">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="Q10">
-        <v>7.997198268111564</v>
+        <v>8.456952567722665</v>
       </c>
       <c r="R10">
-        <v>7.997198268111564</v>
+        <v>76.11257310950398</v>
       </c>
       <c r="S10">
-        <v>0.03333701592614524</v>
+        <v>0.03145638701298915</v>
       </c>
       <c r="T10">
-        <v>0.03333701592614524</v>
+        <v>0.03145638701298915</v>
       </c>
     </row>
   </sheetData>
